--- a/datav2/table_données_asso.xlsx
+++ b/datav2/table_données_asso.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/g0bel1n/bayesian-turning-point-estimation/datav2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{170D4871-415C-1943-A789-56DB12CD4FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A4E0C9-0909-FC41-A7BF-36C4FEC04AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="0" windowWidth="28040" windowHeight="17440" xr2:uid="{207A6F42-4A99-054D-9884-52C0826D0C65}"/>
   </bookViews>
@@ -752,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72FBD17B-57E8-1445-A8EA-7075E5E27D24}">
   <dimension ref="B1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
